--- a/date_formulare.xlsx
+++ b/date_formulare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carte\BB\17 - Site Leadership\alte\Ionel Balauta\Aryeht\Task 1 - Traduce tot site-ul\Doar Google Web\Andreea\Meditatii\2023\Internet Archive BEBE bun\Inspect elements\Test\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EA28FC-53B7-4980-80E2-64320AD58A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F995B58-EC95-4773-875B-D464FB83F4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
   <si>
     <t>nume</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Educatie</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +903,7 @@
         <v>767986744</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
         <v>95</v>
